--- a/biology/Zoologie/Camptogramma_bilineata/Camptogramma_bilineata.xlsx
+++ b/biology/Zoologie/Camptogramma_bilineata/Camptogramma_bilineata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brocatelle d'or (Camptogramma bilineata) est une espèce de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Larentiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, jusqu'en Asie centrale, l'espèce est répandue en France (sauf Corse).
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peuple des milieux variés : jardins, parcs, haies, lisières forestières...
 </t>
@@ -573,7 +589,9 @@
           <t>Plantes-hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille, polyphage, se nourrit de nombreuses plantes basses : Mouron des oiseaux, Oseilles, Gaillets, Potentilles, Pissenlits...
 </t>
@@ -604,9 +622,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le papillon est visible de mai à octobre en France en une génération (sauf dans le Sud où existe une seconde génération partielle)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le papillon est visible de mai à octobre en France en une génération (sauf dans le Sud où existe une seconde génération partielle).
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Photothèque</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
